--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.account.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.account.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46AC141-2A6E-704B-815E-6977F99E9878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C102FD60-DB8F-1A4A-A6B9-13D73008BE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41520" yWindow="-7680" windowWidth="49020" windowHeight="29320" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-WHO" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="113">
   <si>
     <t>active</t>
   </si>
@@ -373,6 +370,14 @@
   </si>
   <si>
     <t>2a0ed598-6774-43a5-b47a-38034069e679</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e33b0103-bb53-44b2-83af-b40ea67c24c9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>88775480-bf0b-462e-9266-063f2e9afbd1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -655,34 +660,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DATA-ERP"/>
-      <sheetName val="DATA-EMPLOYEE"/>
-      <sheetName val="DATA-IDENTITY"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>e33b0103-bb53-44b2-83af-b40ea67c24c9</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>88775480-bf0b-462e-9266-063f2e9afbd1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -982,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8EFB5-630A-0B48-8E56-AEAA85248043}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1005,284 +982,260 @@
     <col min="13" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="10" customFormat="1">
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:12" s="10" customFormat="1">
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C3" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="6" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="I2" s="10"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="13" t="str">
-        <f>A10</f>
-        <v>f7fbfaf9-8319-4eb0-9ee7-1948b8b56a67</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="8"/>
       <c r="I4" s="10"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:12" s="10" customFormat="1">
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:12" s="10" customFormat="1">
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="13" t="str">
+        <f>A12</f>
+        <v>f7fbfaf9-8319-4eb0-9ee7-1948b8b56a67</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" s="10" customFormat="1">
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:12" s="10" customFormat="1">
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C9" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="6" t="s">
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="11" t="s">
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="13" t="s">
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H12" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I12" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
+      <c r="K12" s="9"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C15" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="6" t="s">
+      <c r="D15" s="38"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="14" t="b">
-        <v>1</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -1290,306 +1243,339 @@
       <c r="H16" s="10"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
+    <row r="17" spans="1:11">
+      <c r="A17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C22" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="6" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="11" t="s">
+    <row r="24" spans="1:11">
+      <c r="A24" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="10" customFormat="1">
-      <c r="A23" s="26" t="str">
-        <f>A$16</f>
+    <row r="25" spans="1:11" s="10" customFormat="1">
+      <c r="A25" s="26" t="str">
+        <f>A$18</f>
         <v>e501b47a-c08b-4c83-b12b-95ad82873e96</v>
       </c>
-      <c r="B23" s="13" t="str">
-        <f>A10</f>
+      <c r="B25" s="13" t="str">
+        <f>A12</f>
         <v>f7fbfaf9-8319-4eb0-9ee7-1948b8b56a67</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C25" s="17">
         <v>0</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="20"/>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="20"/>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C28" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="6" t="s">
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="11" t="s">
+    <row r="30" spans="1:11">
+      <c r="A30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B30" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F30" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G30" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:9">
+      <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C33" s="25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="6" t="s">
+    <row r="34" spans="1:9">
+      <c r="A34" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="11" t="s">
+    <row r="35" spans="1:9">
+      <c r="A35" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C37" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="6" t="s">
+    <row r="38" spans="1:9">
+      <c r="A38" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="11" t="s">
+    <row r="39" spans="1:9">
+      <c r="A39" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B39" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="1" t="s">
+    <row r="41" spans="1:9">
+      <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C41" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="29" t="s">
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B42" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C42" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D42" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E42" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="29" t="s">
+      <c r="F42" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="29" t="s">
+      <c r="G42" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="H40" s="30" t="s">
+      <c r="H42" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="I40" s="29" t="s">
+      <c r="I42" s="29" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="11" t="s">
+    <row r="43" spans="1:9">
+      <c r="A43" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B43" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C43" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D43" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E43" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F43" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G43" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H43" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="I43" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="13" t="s">
+    <row r="44" spans="1:9">
+      <c r="A44" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="13" t="str">
-        <f>'[1]DATA-ERP'!A$8</f>
-        <v>e33b0103-bb53-44b2-83af-b40ea67c24c9</v>
-      </c>
-      <c r="C42" s="13" t="str">
-        <f>'[1]DATA-ERP'!A$34</f>
-        <v>88775480-bf0b-462e-9266-063f2e9afbd1</v>
-      </c>
-      <c r="D42" s="13">
-        <f>'[1]DATA-IDENTITY'!A55</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="17" t="s">
+      <c r="B44" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F44" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G42" s="31" t="s">
+      <c r="G44" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H42" s="32" t="s">
+      <c r="H44" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="I42" s="17" t="s">
+      <c r="I44" s="17" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:D16">
-    <sortCondition ref="B16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:D18">
+    <sortCondition ref="B18"/>
   </sortState>
   <mergeCells count="5">
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C41:I41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1" xr:uid="{3A1D81C4-3457-FA45-96B6-BE833693112C}"/>
+    <hyperlink ref="G12" r:id="rId1" xr:uid="{3A1D81C4-3457-FA45-96B6-BE833693112C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.account.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C102FD60-DB8F-1A4A-A6B9-13D73008BE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB42C3C5-4400-5D46-8200-5E0F16FB070D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41520" yWindow="-7680" windowWidth="49020" windowHeight="29320" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>E559D4DA17DD1C17BE86FCF49E60E322</t>
-  </si>
-  <si>
     <t>S_ROLE</t>
   </si>
   <si>
@@ -378,6 +375,10 @@
   </si>
   <si>
     <t>88775480-bf0b-462e-9266-063f2e9afbd1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>314FEB8370A3E6A8F379D682FE16BE74</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -962,7 +963,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1001,10 +1002,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -1016,22 +1017,22 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="G4" s="8"/>
       <c r="I4" s="10"/>
@@ -1042,19 +1043,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="9"/>
       <c r="I5" s="10"/>
@@ -1062,20 +1063,20 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="13" t="str">
         <f>A12</f>
         <v>f7fbfaf9-8319-4eb0-9ee7-1948b8b56a67</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="9"/>
@@ -1104,7 +1105,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="36"/>
@@ -1139,10 +1140,10 @@
         <v>16</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K10" s="9"/>
     </row>
@@ -1169,28 +1170,28 @@
         <v>17</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>13</v>
@@ -1199,10 +1200,10 @@
         <v>18</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K12" s="9"/>
     </row>
@@ -1211,10 +1212,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="25"/>
@@ -1226,16 +1227,16 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -1248,13 +1249,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -1264,13 +1265,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="14" t="b">
         <v>1</v>
@@ -1286,10 +1287,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1297,24 +1298,24 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="C23" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="C24" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="10" customFormat="1">
@@ -1338,10 +1339,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
@@ -1350,19 +1351,19 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>4</v>
@@ -1376,16 +1377,16 @@
         <v>2</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>0</v>
@@ -1399,32 +1400,32 @@
         <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1432,32 +1433,32 @@
         <v>3</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1465,10 +1466,10 @@
         <v>3</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="33" t="s">
         <v>84</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>85</v>
       </c>
       <c r="D41" s="34"/>
       <c r="E41" s="34"/>
@@ -1479,31 +1480,31 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="C42" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="D42" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="E42" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="F42" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="29" t="s">
+      <c r="G42" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="H42" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="H42" s="30" t="s">
+      <c r="I42" s="29" t="s">
         <v>93</v>
-      </c>
-      <c r="I42" s="29" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1511,55 +1512,55 @@
         <v>2</v>
       </c>
       <c r="B43" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="D43" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="E43" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="F43" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="G43" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="H43" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="I43" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>112</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="G44" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="G44" s="31" t="s">
+      <c r="H44" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="H44" s="32" t="s">
+      <c r="I44" s="17" t="s">
         <v>106</v>
-      </c>
-      <c r="I44" s="17" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.account.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.account.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB42C3C5-4400-5D46-8200-5E0F16FB070D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7EA697-3572-B74E-84DC-AEADEDBFF673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41520" yWindow="-7680" windowWidth="49020" windowHeight="29320" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-WHO" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="116">
   <si>
     <t>active</t>
   </si>
@@ -379,6 +381,18 @@
   </si>
   <si>
     <t>314FEB8370A3E6A8F379D682FE16BE74</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>013e543f-0569-476a-bfb1-85fecfe4b5eb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在团队</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -540,12 +554,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -644,6 +667,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -962,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8EFB5-630A-0B48-8E56-AEAA85248043}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1395,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1406,7 +1435,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:12">
       <c r="A34" s="6" t="s">
         <v>62</v>
       </c>
@@ -1417,7 +1446,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:12">
       <c r="A35" s="11" t="s">
         <v>63</v>
       </c>
@@ -1428,7 +1457,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -1439,7 +1468,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:12">
       <c r="A38" s="6" t="s">
         <v>62</v>
       </c>
@@ -1450,7 +1479,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:12">
       <c r="A39" s="11" t="s">
         <v>63</v>
       </c>
@@ -1461,24 +1490,25 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="29" t="s">
         <v>85</v>
       </c>
@@ -1492,22 +1522,27 @@
         <v>88</v>
       </c>
       <c r="E42" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="29" t="s">
+      <c r="G42" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="H42" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="H42" s="30" t="s">
+      <c r="I42" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="I42" s="29" t="s">
+      <c r="J42" s="29" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="K42" s="9"/>
+      <c r="L42" s="10"/>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="11" t="s">
         <v>2</v>
       </c>
@@ -1521,22 +1556,27 @@
         <v>96</v>
       </c>
       <c r="E43" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="G43" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="H43" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="I43" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="J43" s="11" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="K43" s="9"/>
+      <c r="L43" s="10"/>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="13" t="s">
         <v>79</v>
       </c>
@@ -1547,21 +1587,26 @@
         <v>111</v>
       </c>
       <c r="D44" s="13"/>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="G44" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="G44" s="31" t="s">
+      <c r="H44" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="H44" s="32" t="s">
+      <c r="I44" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="I44" s="17" t="s">
+      <c r="J44" s="17" t="s">
         <v>106</v>
       </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="10"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:D18">
@@ -1572,7 +1617,7 @@
     <mergeCell ref="C9:L9"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C41:J41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.account.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.account.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7EA697-3572-B74E-84DC-AEADEDBFF673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74DBDA4-B2CD-8740-807E-1687E18C366B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="42680" yWindow="-4400" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-WHO" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
   <si>
     <t>active</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>employee</t>
-  </si>
-  <si>
-    <t>2a0ed598-6774-43a5-b47a-38034069e679</t>
   </si>
   <si>
     <t>账号数据</t>
@@ -288,78 +285,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>E_EMPLOYEE</t>
-  </si>
-  <si>
-    <t>员工信息表</t>
-  </si>
-  <si>
-    <t>员工主键</t>
-  </si>
-  <si>
-    <t>所属公司</t>
-  </si>
-  <si>
-    <t>所在部门</t>
-  </si>
-  <si>
-    <t>身份信息</t>
-  </si>
-  <si>
-    <t>工号</t>
-  </si>
-  <si>
-    <t>头衔</t>
-  </si>
-  <si>
-    <t>办公地点</t>
-  </si>
-  <si>
-    <t>办公电话</t>
-  </si>
-  <si>
-    <t>员工类型</t>
-  </si>
-  <si>
-    <t>companyId</t>
-  </si>
-  <si>
-    <t>deptId</t>
-  </si>
-  <si>
-    <t>identityId</t>
-  </si>
-  <si>
-    <t>workNumber</t>
-  </si>
-  <si>
-    <t>workTitle</t>
-  </si>
-  <si>
-    <t>workLocation</t>
-  </si>
-  <si>
-    <t>workPhone</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>EMP00001</t>
-  </si>
-  <si>
-    <t>运维经理</t>
-  </si>
-  <si>
-    <t>重庆市渝中区</t>
-  </si>
-  <si>
-    <t>62220213</t>
-  </si>
-  <si>
-    <t>regular</t>
-  </si>
-  <si>
     <t>f7fbfaf9-8319-4eb0-9ee7-1948b8b56a67</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -372,27 +297,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>e33b0103-bb53-44b2-83af-b40ea67c24c9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>88775480-bf0b-462e-9266-063f2e9afbd1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>314FEB8370A3E6A8F379D682FE16BE74</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>013e543f-0569-476a-bfb1-85fecfe4b5eb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>teamId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在团队</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -400,7 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -447,16 +352,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,14 +384,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -554,21 +445,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -638,18 +520,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -667,12 +537,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -989,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8EFB5-630A-0B48-8E56-AEAA85248043}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1033,12 +897,12 @@
       <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
@@ -1133,18 +997,18 @@
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
+      <c r="C9" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="6" t="s">
@@ -1208,7 +1072,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="13" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>9</v>
@@ -1220,7 +1084,7 @@
         <v>52</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>13</v>
@@ -1232,7 +1096,7 @@
         <v>78</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="K12" s="9"/>
     </row>
@@ -1243,10 +1107,10 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="38"/>
+      <c r="C15" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="34"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
@@ -1294,7 +1158,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="26" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>69</v>
@@ -1370,13 +1234,13 @@
       <c r="B28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="6" t="s">
@@ -1424,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1435,7 +1299,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
         <v>62</v>
       </c>
@@ -1446,7 +1310,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:3">
       <c r="A35" s="11" t="s">
         <v>63</v>
       </c>
@@ -1457,7 +1321,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -1468,7 +1332,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
         <v>62</v>
       </c>
@@ -1479,7 +1343,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:3">
       <c r="A39" s="11" t="s">
         <v>63</v>
       </c>
@@ -1489,135 +1353,16 @@
       <c r="C39" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="G42" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="I42" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="J42" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="K42" s="9"/>
-      <c r="L42" s="10"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="10"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H44" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="I44" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="J44" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="K44" s="9"/>
-      <c r="L44" s="10"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:D18">
     <sortCondition ref="B18"/>
   </sortState>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C9:L9"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C41:J41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.account.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.account.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74DBDA4-B2CD-8740-807E-1687E18C366B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8CB6BF-4BD1-8E4F-81A2-9B482B52853D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42680" yWindow="-4400" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22360" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-WHO" sheetId="1" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>super</t>
-  </si>
-  <si>
     <t>roleId</t>
   </si>
   <si>
@@ -298,6 +295,10 @@
   </si>
   <si>
     <t>314FEB8370A3E6A8F379D682FE16BE74</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -855,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8EFB5-630A-0B48-8E56-AEAA85248043}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -895,10 +896,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
@@ -910,22 +911,22 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="G4" s="8"/>
       <c r="I4" s="10"/>
@@ -936,19 +937,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="9"/>
       <c r="I5" s="10"/>
@@ -956,20 +957,20 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="13" t="str">
         <f>A12</f>
         <v>f7fbfaf9-8319-4eb0-9ee7-1948b8b56a67</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="9"/>
@@ -998,7 +999,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
@@ -1033,10 +1034,10 @@
         <v>16</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K10" s="9"/>
     </row>
@@ -1063,28 +1064,28 @@
         <v>17</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>13</v>
@@ -1093,10 +1094,10 @@
         <v>18</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K12" s="9"/>
     </row>
@@ -1108,7 +1109,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="25"/>
@@ -1148,7 +1149,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -1158,13 +1159,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="14" t="b">
         <v>1</v>
@@ -1180,7 +1181,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>30</v>
@@ -1197,18 +1198,18 @@
         <v>32</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="C24" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="10" customFormat="1">
@@ -1232,10 +1233,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
@@ -1244,19 +1245,19 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>4</v>
@@ -1279,7 +1280,7 @@
         <v>34</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>0</v>
@@ -1293,32 +1294,32 @@
         <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1326,32 +1327,32 @@
         <v>3</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.account.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/rbac.account.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8CB6BF-4BD1-8E4F-81A2-9B482B52853D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DFC42B-1AD9-E64C-AD84-41143A6FC9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22360" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="38400" windowHeight="22360" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-WHO" sheetId="1" r:id="rId1"/>
@@ -243,9 +243,6 @@
     <t>ADMIN.SUPER</t>
   </si>
   <si>
-    <t>虞浪</t>
-  </si>
-  <si>
     <t>app.micro.hotel</t>
   </si>
   <si>
@@ -300,17 +297,20 @@
   <si>
     <t>power</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零の</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -318,20 +318,20 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -339,7 +339,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -348,7 +348,7 @@
       <u/>
       <sz val="16"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -451,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -459,19 +459,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -484,7 +480,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -493,34 +489,25 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -857,59 +844,55 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="96.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="54.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="55.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="96.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1">
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:12" s="10" customFormat="1">
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:12">
+    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="C3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -929,89 +912,85 @@
         <v>44</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="I4" s="10"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="11" t="s">
+      <c r="I4" s="8"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="13" t="str">
+      <c r="I5" s="8"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="11" t="str">
         <f>A12</f>
         <v>f7fbfaf9-8319-4eb0-9ee7-1948b8b56a67</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" s="10" customFormat="1">
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:12" s="10" customFormat="1">
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="D6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="I6" s="8"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="C9" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
@@ -1034,92 +1013,89 @@
         <v>16</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I11" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="I12" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="C15" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -1132,65 +1108,61 @@
       <c r="D16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="11" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="H16" s="8"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="27" t="s">
+      <c r="D17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="H17" s="8"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="14" t="b">
+      <c r="D18" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="H18" s="8"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>31</v>
       </c>
@@ -1201,49 +1173,47 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="10" customFormat="1">
-      <c r="A25" s="26" t="str">
+    <row r="25" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="str">
         <f>A$18</f>
         <v>e501b47a-c08b-4c83-b12b-95ad82873e96</v>
       </c>
-      <c r="B25" s="13" t="str">
+      <c r="B25" s="11" t="str">
         <f>A12</f>
         <v>f7fbfaf9-8319-4eb0-9ee7-1948b8b56a67</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="12">
         <v>0</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="20"/>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>54</v>
       </c>
@@ -1266,41 +1236,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>61</v>
       </c>
@@ -1311,29 +1281,29 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>61</v>
       </c>
@@ -1344,14 +1314,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="11" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="9" t="s">
         <v>65</v>
       </c>
     </row>
